--- a/output/PersonalHealthRecords/composition-phn-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phn-1.xlsx
@@ -1472,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM64"/>
+  <dimension ref="A1:AL64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>

--- a/output/PersonalHealthRecords/composition-phn-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phn-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="417">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Composition.meta.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>Composition.meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>Composition.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>Composition.meta.security</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
+    <t>en-AU</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -418,7 +418,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
 </t>
   </si>
   <si>
@@ -528,7 +528,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -734,7 +734,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1)
 </t>
   </si>
   <si>
@@ -766,9 +766,6 @@
   </si>
   <si>
     <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Personal Health Notes"/&gt;</t>
   </si>
   <si>
     <t>./title</t>
@@ -802,7 +799,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -837,7 +834,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
 </t>
   </si>
   <si>
@@ -908,7 +905,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
 </t>
   </si>
   <si>
@@ -933,7 +930,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1013,8 +1010,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
+    <t>Identifier
+Reference(Composition)</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1080,7 +1077,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -1093,7 +1090,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1134,7 +1131,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
 </t>
   </si>
   <si>
@@ -1229,7 +1226,7 @@
     <t>Sections are used in various ways, and it must be known in what way it is safe to use the entries in them.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="snapshot"/&gt;</t>
+    <t>snapshot</t>
   </si>
   <si>
     <t>The processing mode that applies to this section.</t>
@@ -1376,67 +1373,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -4489,7 +4486,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>39</v>
@@ -4546,10 +4543,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4557,7 +4554,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4583,13 +4580,13 @@
         <v>119</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4618,46 +4615,46 @@
         <v>175</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4665,7 +4662,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4688,19 +4685,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4749,7 +4746,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4761,13 +4758,13 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4775,7 +4772,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4881,7 +4878,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4985,10 +4982,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
@@ -5010,13 +5007,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5093,11 +5090,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5122,7 +5119,7 @@
         <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>74</v>
@@ -5175,7 +5172,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5201,7 +5198,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5227,16 +5224,16 @@
         <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5264,11 +5261,11 @@
         <v>175</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>50</v>
@@ -5300,10 +5297,10 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5311,7 +5308,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5337,14 +5334,14 @@
         <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5393,7 +5390,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5408,10 +5405,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5419,7 +5416,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5442,17 +5439,17 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5501,7 +5498,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5516,18 +5513,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5550,19 +5547,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5611,7 +5608,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5626,10 +5623,10 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5637,7 +5634,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5660,16 +5657,16 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5719,7 +5716,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5731,13 +5728,13 @@
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -5745,7 +5742,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5851,7 +5848,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5959,11 +5956,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5988,7 +5985,7 @@
         <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>74</v>
@@ -6041,7 +6038,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6067,7 +6064,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6093,13 +6090,13 @@
         <v>119</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6128,46 +6125,46 @@
         <v>175</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="AK43" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -6175,7 +6172,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6198,13 +6195,13 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6255,7 +6252,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>50</v>
@@ -6270,10 +6267,10 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -6281,7 +6278,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6304,19 +6301,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6365,7 +6362,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6377,13 +6374,13 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -6391,7 +6388,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6497,7 +6494,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6605,11 +6602,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6634,7 +6631,7 @@
         <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>74</v>
@@ -6687,7 +6684,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6713,7 +6710,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6739,13 +6736,13 @@
         <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6774,11 +6771,11 @@
         <v>109</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6795,7 +6792,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6821,7 +6818,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6844,13 +6841,13 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6901,7 +6898,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6927,7 +6924,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6950,13 +6947,13 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7007,7 +7004,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7022,7 +7019,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>68</v>
@@ -7033,7 +7030,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7056,13 +7053,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7113,7 +7110,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7125,13 +7122,13 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7139,7 +7136,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7245,7 +7242,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7349,10 +7346,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>39</v>
@@ -7374,13 +7371,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7457,11 +7454,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7486,7 +7483,7 @@
         <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>74</v>
@@ -7539,7 +7536,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7565,11 +7562,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7591,16 +7588,16 @@
         <v>64</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7649,7 +7646,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7664,10 +7661,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7675,7 +7672,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7701,23 +7698,23 @@
         <v>181</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>39</v>
@@ -7738,11 +7735,11 @@
         <v>109</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
       </c>
@@ -7759,7 +7756,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7785,7 +7782,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7811,13 +7808,13 @@
         <v>129</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7867,7 +7864,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7876,16 +7873,16 @@
         <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AI59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AK59" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7893,7 +7890,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7919,23 +7916,23 @@
         <v>119</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>39</v>
@@ -7956,43 +7953,43 @@
         <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>68</v>
@@ -8003,7 +8000,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8029,16 +8026,16 @@
         <v>181</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -8066,43 +8063,43 @@
         <v>187</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>68</v>
@@ -8113,7 +8110,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8136,16 +8133,16 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8195,7 +8192,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8204,16 +8201,16 @@
         <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AI62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
+      <c r="AK62" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8221,7 +8218,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8247,16 +8244,16 @@
         <v>181</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -8284,43 +8281,43 @@
         <v>187</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>68</v>
@@ -8331,7 +8328,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8357,13 +8354,13 @@
         <v>39</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8413,7 +8410,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8422,16 +8419,16 @@
         <v>41</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>

--- a/output/PersonalHealthRecords/composition-phn-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phn-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="418">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Composition.meta.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>Composition.meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">instant
+    <t xml:space="preserve">instant {[]} {[]}
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>Composition.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>Composition.meta.security</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>en-AU</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -418,7 +418,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
 </t>
   </si>
   <si>
@@ -528,7 +528,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1]]}
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -734,7 +734,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1]]}
 </t>
   </si>
   <si>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
+  </si>
+  <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Personal Health Notes"/&gt;</t>
   </si>
   <si>
     <t>./title</t>
@@ -799,7 +802,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -834,7 +837,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
 </t>
   </si>
   <si>
@@ -905,7 +908,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -930,7 +933,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
 </t>
   </si>
   <si>
@@ -1010,8 +1013,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier
-Reference(Composition)</t>
+    <t>Identifier {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1077,7 +1080,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -1090,7 +1093,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
 </t>
   </si>
   <si>
@@ -1131,7 +1134,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
 </t>
   </si>
   <si>
@@ -1226,7 +1229,7 @@
     <t>Sections are used in various ways, and it must be known in what way it is safe to use the entries in them.</t>
   </si>
   <si>
-    <t>snapshot</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="snapshot"/&gt;</t>
   </si>
   <si>
     <t>The processing mode that applies to this section.</t>
@@ -1373,67 +1376,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1469,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL64"/>
+  <dimension ref="A1:AM64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4486,7 +4489,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>42</v>
+        <v>239</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>39</v>
@@ -4543,10 +4546,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4554,7 +4557,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4580,13 +4583,13 @@
         <v>119</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4615,10 +4618,10 @@
         <v>175</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>39</v>
@@ -4636,7 +4639,7 @@
         <v>39</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>40</v>
@@ -4651,10 +4654,10 @@
         <v>39</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4662,7 +4665,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4685,19 +4688,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4746,7 +4749,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4758,13 +4761,13 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4772,7 +4775,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4878,7 +4881,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4982,10 +4985,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
@@ -5007,13 +5010,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5090,11 +5093,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5119,7 +5122,7 @@
         <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>74</v>
@@ -5172,7 +5175,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5198,7 +5201,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5224,16 +5227,16 @@
         <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5261,10 +5264,10 @@
         <v>175</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
@@ -5282,7 +5285,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>50</v>
@@ -5297,10 +5300,10 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5308,7 +5311,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5334,14 +5337,14 @@
         <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5390,7 +5393,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5405,10 +5408,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5416,7 +5419,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5439,17 +5442,17 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5498,7 +5501,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5513,18 +5516,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5547,19 +5550,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5608,7 +5611,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5623,10 +5626,10 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5634,7 +5637,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5657,16 +5660,16 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5716,7 +5719,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5728,13 +5731,13 @@
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -5742,7 +5745,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5848,7 +5851,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5956,11 +5959,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5985,7 +5988,7 @@
         <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>74</v>
@@ -6038,7 +6041,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6064,7 +6067,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6090,13 +6093,13 @@
         <v>119</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6125,10 +6128,10 @@
         <v>175</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
@@ -6146,7 +6149,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>50</v>
@@ -6161,10 +6164,10 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -6172,7 +6175,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6195,13 +6198,13 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6252,7 +6255,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>50</v>
@@ -6267,10 +6270,10 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -6278,7 +6281,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6301,19 +6304,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6362,7 +6365,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6374,13 +6377,13 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -6388,7 +6391,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6494,7 +6497,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6602,11 +6605,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6631,7 +6634,7 @@
         <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>74</v>
@@ -6684,7 +6687,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6710,7 +6713,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6736,13 +6739,13 @@
         <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6771,10 +6774,10 @@
         <v>109</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
@@ -6792,7 +6795,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6818,7 +6821,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6841,13 +6844,13 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6898,7 +6901,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6924,7 +6927,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6947,13 +6950,13 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7004,7 +7007,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7019,7 +7022,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>68</v>
@@ -7030,7 +7033,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7053,13 +7056,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7110,7 +7113,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7122,13 +7125,13 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7136,7 +7139,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7242,7 +7245,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7346,10 +7349,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>39</v>
@@ -7371,13 +7374,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7454,11 +7457,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7483,7 +7486,7 @@
         <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>74</v>
@@ -7536,7 +7539,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7562,11 +7565,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7588,16 +7591,16 @@
         <v>64</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7646,7 +7649,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7661,10 +7664,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7672,7 +7675,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7698,23 +7701,23 @@
         <v>181</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>39</v>
@@ -7735,10 +7738,10 @@
         <v>109</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
@@ -7756,7 +7759,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7782,7 +7785,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7808,13 +7811,13 @@
         <v>129</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7864,7 +7867,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7873,16 +7876,16 @@
         <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7890,7 +7893,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7916,23 +7919,23 @@
         <v>119</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>39</v>
@@ -7953,10 +7956,10 @@
         <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>39</v>
@@ -7974,7 +7977,7 @@
         <v>39</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -7989,7 +7992,7 @@
         <v>39</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>68</v>
@@ -8000,7 +8003,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8026,16 +8029,16 @@
         <v>181</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -8063,10 +8066,10 @@
         <v>187</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>39</v>
@@ -8084,7 +8087,7 @@
         <v>39</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>40</v>
@@ -8099,7 +8102,7 @@
         <v>39</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>68</v>
@@ -8110,7 +8113,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8133,16 +8136,16 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8192,7 +8195,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8201,16 +8204,16 @@
         <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8218,7 +8221,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8244,16 +8247,16 @@
         <v>181</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -8281,10 +8284,10 @@
         <v>187</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>39</v>
@@ -8302,7 +8305,7 @@
         <v>39</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>40</v>
@@ -8311,13 +8314,13 @@
         <v>50</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>68</v>
@@ -8328,7 +8331,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8354,13 +8357,13 @@
         <v>39</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8410,7 +8413,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8419,16 +8422,16 @@
         <v>41</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>

--- a/output/PersonalHealthRecords/composition-phn-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phn-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="417">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Composition.meta.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>Composition.meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>Composition.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>Composition.meta.security</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
+    <t>en-AU</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -418,7 +418,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
 </t>
   </si>
   <si>
@@ -528,7 +528,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -584,7 +584,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -653,7 +653,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
 </t>
   </si>
   <si>
@@ -681,7 +681,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -706,7 +706,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -734,7 +734,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-ihi-1)
 </t>
   </si>
   <si>
@@ -766,9 +766,6 @@
   </si>
   <si>
     <t>For many compositions, the title is the same as the text or a display name of Composition.type (e.g. a "consultation" or "progress note"). Note that CDA does not make title mandatory, but there are no known cases where it is useful for title to be omitted, so it is mandatory here. Feedback on this requirement is welcome during the trial use period.</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Personal Health Notes"/&gt;</t>
   </si>
   <si>
     <t>./title</t>
@@ -802,7 +799,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -837,7 +834,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
 </t>
   </si>
   <si>
@@ -908,7 +905,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
 </t>
   </si>
   <si>
@@ -933,7 +930,7 @@
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1013,8 +1010,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
+    <t>Identifier
+Reference(Composition)</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1080,7 +1077,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -1093,7 +1090,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1134,7 +1131,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
 </t>
   </si>
   <si>
@@ -1229,7 +1226,7 @@
     <t>Sections are used in various ways, and it must be known in what way it is safe to use the entries in them.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="snapshot"/&gt;</t>
+    <t>snapshot</t>
   </si>
   <si>
     <t>The processing mode that applies to this section.</t>
@@ -1376,67 +1373,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1472,7 +1469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM64"/>
+  <dimension ref="A1:AL64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4489,7 +4486,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>239</v>
+        <v>42</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>39</v>
@@ -4546,10 +4543,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4557,7 +4554,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4583,13 +4580,13 @@
         <v>119</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4618,46 +4615,46 @@
         <v>175</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4665,7 +4662,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4688,19 +4685,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4749,7 +4746,7 @@
         <v>39</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4761,13 +4758,13 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4775,7 +4772,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4881,7 +4878,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4985,10 +4982,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
@@ -5010,13 +5007,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5093,11 +5090,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5122,7 +5119,7 @@
         <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>74</v>
@@ -5175,7 +5172,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5201,7 +5198,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5227,16 +5224,16 @@
         <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5264,11 +5261,11 @@
         <v>175</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>274</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
       </c>
@@ -5285,7 +5282,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>50</v>
@@ -5300,10 +5297,10 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5311,7 +5308,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5337,14 +5334,14 @@
         <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5393,7 +5390,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5408,10 +5405,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5419,7 +5416,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5442,17 +5439,17 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5501,7 +5498,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5516,18 +5513,18 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>290</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5550,19 +5547,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5611,7 +5608,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5626,10 +5623,10 @@
         <v>39</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5637,7 +5634,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5660,16 +5657,16 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5719,7 +5716,7 @@
         <v>39</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>40</v>
@@ -5731,13 +5728,13 @@
         <v>39</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>39</v>
@@ -5745,7 +5742,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5851,7 +5848,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5959,11 +5956,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5988,7 +5985,7 @@
         <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>74</v>
@@ -6041,7 +6038,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6067,7 +6064,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6093,13 +6090,13 @@
         <v>119</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6128,46 +6125,46 @@
         <v>175</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
+      <c r="AK43" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -6175,7 +6172,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6198,13 +6195,13 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6255,7 +6252,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>50</v>
@@ -6270,10 +6267,10 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -6281,7 +6278,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6304,19 +6301,19 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6365,7 +6362,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6377,13 +6374,13 @@
         <v>39</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>39</v>
@@ -6391,7 +6388,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6497,7 +6494,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6605,11 +6602,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6634,7 +6631,7 @@
         <v>159</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>74</v>
@@ -6687,7 +6684,7 @@
         <v>39</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>40</v>
@@ -6713,7 +6710,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6739,13 +6736,13 @@
         <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6774,11 +6771,11 @@
         <v>109</v>
       </c>
       <c r="X49" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="Y49" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="Y49" t="s" s="2">
-        <v>338</v>
-      </c>
       <c r="Z49" t="s" s="2">
         <v>39</v>
       </c>
@@ -6795,7 +6792,7 @@
         <v>39</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>40</v>
@@ -6821,7 +6818,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6844,13 +6841,13 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6901,7 +6898,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -6927,7 +6924,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6950,13 +6947,13 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7007,7 +7004,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>40</v>
@@ -7022,7 +7019,7 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>68</v>
@@ -7033,7 +7030,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7056,13 +7053,13 @@
         <v>39</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7113,7 +7110,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>40</v>
@@ -7125,13 +7122,13 @@
         <v>39</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AJ52" t="s" s="2">
+      <c r="AK52" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7139,7 +7136,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7245,7 +7242,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7349,10 +7346,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="B55" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>39</v>
@@ -7374,13 +7371,13 @@
         <v>39</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7457,11 +7454,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7486,7 +7483,7 @@
         <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>74</v>
@@ -7539,7 +7536,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7565,11 +7562,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7591,16 +7588,16 @@
         <v>64</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>39</v>
@@ -7649,7 +7646,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7664,10 +7661,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK57" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7675,7 +7672,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7701,23 +7698,23 @@
         <v>181</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>39</v>
@@ -7738,11 +7735,11 @@
         <v>109</v>
       </c>
       <c r="X58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Y58" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Y58" t="s" s="2">
-        <v>374</v>
-      </c>
       <c r="Z58" t="s" s="2">
         <v>39</v>
       </c>
@@ -7759,7 +7756,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7785,7 +7782,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7811,13 +7808,13 @@
         <v>129</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -7867,7 +7864,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -7876,16 +7873,16 @@
         <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="AI59" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>380</v>
-      </c>
       <c r="AK59" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>39</v>
@@ -7893,7 +7890,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7919,23 +7916,23 @@
         <v>119</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P60" s="2"/>
       <c r="Q60" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R60" t="s" s="2">
         <v>39</v>
@@ -7956,43 +7953,43 @@
         <v>175</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>68</v>
@@ -8003,7 +8000,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8029,16 +8026,16 @@
         <v>181</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>39</v>
@@ -8066,43 +8063,43 @@
         <v>187</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="Z61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>68</v>
@@ -8113,7 +8110,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8136,16 +8133,16 @@
         <v>39</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -8195,7 +8192,7 @@
         <v>39</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>40</v>
@@ -8204,16 +8201,16 @@
         <v>41</v>
       </c>
       <c r="AH62" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AI62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
+      <c r="AK62" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>39</v>
@@ -8221,7 +8218,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8247,16 +8244,16 @@
         <v>181</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>39</v>
@@ -8284,43 +8281,43 @@
         <v>187</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>68</v>
@@ -8331,7 +8328,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8357,13 +8354,13 @@
         <v>39</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8413,7 +8410,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8422,16 +8419,16 @@
         <v>41</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>39</v>

--- a/output/PersonalHealthRecords/composition-phn-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phn-1.xlsx
@@ -206,7 +206,7 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-phn-01:One meta.profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-phn-1' {meta.profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-phn-1').exists()}
+    <t xml:space="preserve">inv-dh-phn-01:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-phn-1' {profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-phn-1').exists()}
 </t>
   </si>
   <si>

--- a/output/PersonalHealthRecords/composition-phn-1.xlsx
+++ b/output/PersonalHealthRecords/composition-phn-1.xlsx
@@ -3832,10 +3832,10 @@
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R22" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>39</v>
@@ -7714,10 +7714,10 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R58" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>39</v>
